--- a/biology/Zoologie/Anilios_unguirostris/Anilios_unguirostris.xlsx
+++ b/biology/Zoologie/Anilios_unguirostris/Anilios_unguirostris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anilios unguirostris est une espèce de serpents de la famille des Typhlopidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anilios unguirostris est une espèce de serpents de la famille des Typhlopidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre en Nouvelle-Galles du Sud, au Queensland, dans le Territoire du Nord, en Australie-Méridionale et en Australie-Occidentale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre en Nouvelle-Galles du Sud, au Queensland, dans le Territoire du Nord, en Australie-Méridionale et en Australie-Occidentale.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Peters, 1867 : Über Flederthiere (Pteropus gouldii, Rhinolophus deckenii, Vespertilio lobipes, Vesperugo temminckii) und Amphibien (Hypsilurus godeffroyi, Lygosoma scutatum, Stenostoma narirostre, Onychocephalus unguirostris, Ahaetulla poylepis, Pseudechis scutellatus, Hoplobatrachus reinhardtii, Hyla coriacea). Monatsberichte der Königlich Preussischen Akademie der Wissenschaften zu Berlin, vol. 1867, p. 703-712 (texte intégral).</t>
         </is>
